--- a/8DIO/Claire Woodwinds/Claire Flute/xlsx/Claire Flute Virtuoso.xlsx
+++ b/8DIO/Claire Woodwinds/Claire Flute/xlsx/Claire Flute Virtuoso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21555" windowHeight="10530" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21555" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="Flute Arcs" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,6 +68,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -75,6 +105,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,6 +148,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -128,6 +188,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -144,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="175">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -673,13 +748,31 @@
   </si>
   <si>
     <t>SUS XFADE</t>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>Flute Arcs</t>
+  </si>
+  <si>
+    <t>Flute Bonus FX Runs</t>
+  </si>
+  <si>
+    <t>Flute General Arts</t>
+  </si>
+  <si>
+    <t>Flute Leg Lyrical</t>
+  </si>
+  <si>
+    <t>Flute Leg Strong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,8 +819,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +873,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,6 +1002,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,1728 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="35.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
-    <col min="7" max="9" width="9.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="6">
-        <v>120</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6">
-        <v>120</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="6">
-        <v>120</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="6">
-        <v>120</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="3"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="3"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="3"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="3"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="3"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="3"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="3"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="3"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="3"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="3"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="3"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="3"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="3"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="3"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="3"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="3"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="3"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="3"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="3"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="3"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="3"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="3"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="3"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="3"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="3"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="3"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="3"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="3"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="3"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="3"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="3"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="3"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="3"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="3"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="3"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="3"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="3"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="3"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="3"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="3"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="3"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="3"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="3"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="3"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="3"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="3"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="3"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="3"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="3"/>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="3"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="3"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="3"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="3"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="3"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="3"/>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="3"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="3"/>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="3"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="3"/>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="3"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="3"/>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" s="3"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="3"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="3"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="3"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="3"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="3"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="3"/>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" s="3"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="3"/>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="3"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="3"/>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="3"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="3"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="3"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="3"/>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="3"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="3"/>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="3"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="3"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="3"/>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="3"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="3"/>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="3"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="3"/>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="3"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="3"/>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="3"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="3"/>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="3"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="3"/>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="3"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="3"/>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="3"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="3"/>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="3"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="3"/>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="3"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
-      <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
-      <formula1>0</formula1>
-      <formula2>127</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
-      <formula1>0</formula1>
-      <formula2>127</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
-          <x14:formula1>
-            <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2937,95 +1331,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
       <c r="C4" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -3033,25 +1388,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -3060,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -3071,13 +1422,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -3086,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -3097,13 +1448,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -3112,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -3122,14 +1473,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>156</v>
+      <c r="A8" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>156</v>
+      <c r="C8" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -3138,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -3148,25 +1499,53 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6">
+        <v>120</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
@@ -3186,7 +1565,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
@@ -3198,7 +1577,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -4587,19 +2966,46 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
+      <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
-      <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4608,23 +3014,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
-            <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
+            <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
+            <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4632,15 +3038,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4655,95 +3061,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -4751,25 +3118,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -4778,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -4789,13 +3152,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -4804,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -4815,13 +3178,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -4830,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -4840,14 +3203,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>162</v>
+      <c r="A8" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>162</v>
+      <c r="C8" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -4856,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -4866,25 +3229,53 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6">
+        <v>120</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
@@ -4904,7 +3295,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
@@ -4916,7 +3307,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -6305,17 +4696,1774 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
-      <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
+      <formula1>0</formula1>
+      <formula2>127</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
+      <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E130</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D130</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
+          <x14:formula1>
+            <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4:F130</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J130"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
+    <col min="7" max="9" width="9.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6">
+        <v>120</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6">
+        <v>120</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6">
+        <v>120</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6">
+        <v>120</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6">
+        <v>120</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="3"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="3"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="3"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="3"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="3"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="3"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="3"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="3"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="3"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="3"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="3"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="3"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="3"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="3"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="3"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="3"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="3"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="3"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="3"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="3"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="3"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="3"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="3"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="3"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="3"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="3"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="3"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="3"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="3"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="3"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="3"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="3"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="3"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="3"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="3"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="3"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="3"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="3"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="3"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="3"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="3"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="3"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="3"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="3"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="3"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="3"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="3"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="3"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="3"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="3"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="3"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="3"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="3"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="3"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="3"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="3"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="3"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="3"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="3"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="3"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="3"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="3"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="3"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="3"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="3"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="3"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="3"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="3"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="3"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="3"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="3"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="3"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="3"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="3"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="3"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="3"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="3"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="3"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="3"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
+      <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
+      <formula1>0</formula1>
+      <formula2>127</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -6330,19 +6478,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6352,13 +6500,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6373,95 +6521,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -6469,25 +6578,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -6496,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -6507,13 +6612,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -6522,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -6533,13 +6638,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -6548,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -6558,14 +6663,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>168</v>
+      <c r="A8" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>168</v>
+      <c r="C8" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -6574,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -6584,14 +6689,14 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>157</v>
+      <c r="A9" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>157</v>
+      <c r="C9" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -6600,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6">
         <v>120</v>
@@ -6611,13 +6716,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -6626,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6">
         <v>120</v>
@@ -6636,25 +6741,53 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
@@ -6662,7 +6795,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -8051,18 +8184,45 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8076,19 +8236,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8098,13 +8258,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8119,95 +8279,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -8215,25 +8336,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -8242,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -8253,13 +8370,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -8268,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -8279,13 +8396,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -8294,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -8304,14 +8421,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>168</v>
+      <c r="A8" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>168</v>
+      <c r="C8" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -8320,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -8330,14 +8447,14 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>157</v>
+      <c r="A9" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>157</v>
+      <c r="C9" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -8346,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6">
         <v>120</v>
@@ -8357,13 +8474,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -8372,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6">
         <v>120</v>
@@ -8382,25 +8499,53 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
@@ -8408,7 +8553,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -9797,17 +9942,44 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -9822,19 +9994,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
